--- a/biology/Médecine/Thematic_Apperception_Test/Thematic_Apperception_Test.xlsx
+++ b/biology/Médecine/Thematic_Apperception_Test/Thematic_Apperception_Test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Thematic Apperception Test (TAT) est un test projectif utilisé par les psychologues cliniciens. Selon Nina Rausch de Traubenberg « Les méthodes projectives sont un lieu où la théorie s'incarne dans un discours. »
 Le principe est de montrer des planches, dessins figuratifs représentant des situations sociales variées et ambiguës, et de demander au sujet de raconter une histoire à partir de ces planches, ce qui est appelé passation. 
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Murray, médecin et biochimiste, élabore le TAT en 1935. Il se fonde sur une théorie de la dualité des besoins de l'individu.
 Puis, sera adoptée une démarche psychanalytique. L'Ego-psychology a travaillé l'interprétation de ce test, en se centrant sur le mécanisme de défense : il s'agit d'interroger la réponse comme défense face à un vécu affectif délicat. D'autres écoles psychanalytiques l'interpréteront en considérant l'opposition entre contenu manifeste et contenu latent : la réponse recèle des éléments permettant d'y voir des problématiques inconscientes. En 1938, Murray en utilisera les résultats pour nourrir sa théorie de la personnalité dans son ouvrage Exploration de la personnalité. C’est en 1943 que fut publiée, toujours par Murray, la forme définitive du test avec son manuel d’application.
@@ -559,9 +573,11 @@
           <t>Reprise par Magda B. Arnold</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le test qui avait été développé pour évaluer l'aptitude des adultes à certaines fonctions militaires a été adapté pour convenir à tout le monde et à des malades mentaux. Magda Arnold a définit cinq domaines d'évaluation: 1) les situations parents-enfants, 2) les situations hétérosexuelles, 3) les situations homosexuelles, 4) les célibataires et 5) les diverses situations autres. Chaque domaine avait une histoire de référence à partir de laquelle on pouvait comparer celle de l'individu testé. Cela permettait d'identifier le problème psychique et, éventuellement, de définir un traitement[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test qui avait été développé pour évaluer l'aptitude des adultes à certaines fonctions militaires a été adapté pour convenir à tout le monde et à des malades mentaux. Magda Arnold a définit cinq domaines d'évaluation: 1) les situations parents-enfants, 2) les situations hétérosexuelles, 3) les situations homosexuelles, 4) les célibataires et 5) les diverses situations autres. Chaque domaine avait une histoire de référence à partir de laquelle on pouvait comparer celle de l'individu testé. Cela permettait d'identifier le problème psychique et, éventuellement, de définir un traitement.
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Orientation de Vica Shentoub</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en 1953 que Vica Shentoub reprend le test de Henri Murray pour lui donner une relecture psychanalytique. À l'aide d'une équipe de chercheurs de l'institut de psychologie à Paris, elle collecte et analyse pendant plusieurs années d'innombrables protocoles. Ce travail révèlera un corpus de réponses dites banales mais surtout le fait que les contenus des réponses n'ont pas réellement de valeurs discriminantes et/ou diagnostiques. Le plus important est en réalité le style du récit, les procédés utilisés, la manière même de répondre à la consigne et aux stimuli. Il s'agit là d'un véritable renversement par rapport à la perspective de Murray. Dans cette nouvelle orientation, Vica Shentoub reconnaîtra l'influence du psychanalyste américain Roy Schafer. Celui-ci avait reconsidéré le test de Rorschach en proposant un nouvel étayage psychanalytique. Son idée de base, bien qu'alors formalisée au minimum, était d'écouter les réponses du sujet comme un psychanalyste écoute le discours d'un patient. Sans conteste, l'influence de Daniel Lagache fut tout aussi déterminante, notamment pour aller au-delà des apports de l'Ego Psychology.
 Ainsi, progressivement, Vica Shentoub et ses collaborateurs, particulièrement Rosine Debray dans les années 1970, construisent une grille ou plutôt un mode original de lecture des protocoles et sans cesse en évolution. Les points fondamentaux furent de distinguer :
@@ -628,7 +646,9 @@
           <t>Description des planches sélectionnées par Vica Shentoub</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>À l'origine, Murray avait utilisé des marques derrière les planches. L'équipe de V. Shentoub les a conservées, même si elles ont perdu toute signification :
 B : pour Boy (garçon de 7 à 14 ans)
@@ -662,7 +682,9 @@
           <t>Cotation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe de la cotation est de déterminer les mécanismes de défenses utilisés par le sujet. La première feuille de dépouillement, permettant de coter les réponses au test, fut élaborée en 1968 par Vica Shentoub. 
 En 1978, Debray y adjoint les procédés factuels. Puis, Foulard, en 1981, considère certains procédés narcissiques. En 1998 et 2000 apparaissent une nouvelle catégorie : l'investissement des limites.
@@ -695,7 +717,9 @@
           <t>Le Children Apperception Test (CAT)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce test est une variante du TAT à destination des enfants ( &lt; 7/8 ans). Il a comme différence principale le type de figures utilisées. Celles-ci sont de type animal. La raison est que les jeunes enfants ont une grande capacité à se projeter sur ceux- ci.
 </t>
@@ -726,7 +750,9 @@
           <t>Critiques et limites du TAT</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">À la différence de la majorité des tests psychométriques, le TAT — mais c'est aussi le cas du test de Rorschach — n'est pas utilisé d'une manière univoque. Selon que l'on se réfère à telle ou telle école, les conditions de passation et d'interprétation diffèrent.
 Certains considèrent que ces fluctuations impliquent, d'un point de vue psychométrique, plusieurs faiblesses méthodologiques :
